--- a/Dogs-Trust.xlsx
+++ b/Dogs-Trust.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fiona\Desktop\Programming for Data Analytics 2020\Programming-for-Data-Analytics-2020-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1021B5A2-FCAD-4954-BDD6-DDF4A850DCA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE010B8C-F881-4F9D-B9A0-7E9B35C71873}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,9 +48,6 @@
     <t>Female</t>
   </si>
   <si>
-    <t>Crossbreed</t>
-  </si>
-  <si>
     <t>Crossbred</t>
   </si>
   <si>
@@ -142,6 +139,9 @@
   </si>
   <si>
     <t>%  of Total</t>
+  </si>
+  <si>
+    <t>Pedigree</t>
   </si>
 </sst>
 </file>
@@ -999,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,42 +1018,42 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2">
         <v>1217</v>
@@ -1138,10 +1138,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C5" s="1">
         <v>827</v>
@@ -1170,10 +1170,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1">
         <v>390</v>
@@ -1202,10 +1202,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C7" s="1">
         <v>360</v>
@@ -1234,10 +1234,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1">
         <v>638</v>
@@ -1266,10 +1266,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1">
         <v>218</v>
@@ -1298,10 +1298,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -1330,10 +1330,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1">
         <v>227</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1">
         <v>257</v>
@@ -1394,10 +1394,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1">
         <v>311</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1">
         <v>209</v>
@@ -1458,10 +1458,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1">
         <v>169</v>
@@ -1490,10 +1490,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1">
         <v>44</v>
@@ -1522,10 +1522,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -1554,10 +1554,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C18" s="1">
         <v>355</v>
@@ -1586,10 +1586,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1">
         <v>862</v>
@@ -1618,10 +1618,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1">
         <v>414</v>
@@ -1650,10 +1650,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1">
         <v>211</v>
@@ -1682,10 +1682,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1">
         <v>384</v>
@@ -1714,10 +1714,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="1">
         <v>188</v>
@@ -1746,10 +1746,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24" s="1">
         <v>20</v>

--- a/Dogs-Trust.xlsx
+++ b/Dogs-Trust.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fiona\Desktop\Programming for Data Analytics 2020\Programming-for-Data-Analytics-2020-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE010B8C-F881-4F9D-B9A0-7E9B35C71873}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1ACFFC9-E2AE-4235-9E76-D24762B908C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>Dogs Originally Obtained From Dogs Trust</t>
   </si>
   <si>
-    <t>Sex</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
@@ -142,6 +139,9 @@
   </si>
   <si>
     <t>Pedigree</t>
+  </si>
+  <si>
+    <t>Gender</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1000,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,42 +1018,42 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2">
         <v>1217</v>
@@ -1074,10 +1074,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="C3" s="1">
         <v>660</v>
@@ -1106,10 +1106,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
         <v>557</v>
@@ -1138,10 +1138,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
         <v>827</v>
@@ -1170,10 +1170,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
         <v>390</v>
@@ -1202,10 +1202,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C7" s="1">
         <v>360</v>
@@ -1234,10 +1234,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1">
         <v>638</v>
@@ -1266,10 +1266,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1">
         <v>218</v>
@@ -1298,10 +1298,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -1330,10 +1330,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1">
         <v>227</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1">
         <v>257</v>
@@ -1394,10 +1394,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1">
         <v>311</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1">
         <v>209</v>
@@ -1458,10 +1458,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1">
         <v>169</v>
@@ -1490,10 +1490,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1">
         <v>44</v>
@@ -1522,10 +1522,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -1554,10 +1554,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C18" s="1">
         <v>355</v>
@@ -1586,10 +1586,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="1">
         <v>862</v>
@@ -1618,10 +1618,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="1">
         <v>414</v>
@@ -1650,10 +1650,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="1">
         <v>211</v>
@@ -1682,10 +1682,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1">
         <v>384</v>
@@ -1714,10 +1714,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="1">
         <v>188</v>
@@ -1746,10 +1746,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" s="1">
         <v>20</v>
